--- a/data/trans_orig/CLASESOCIAL_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en País Vasco</t>
+          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7149,7 +7149,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Andalucia</t>
+          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13752,7 +13752,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en C.Valenciana</t>
+          <t>Clase social de la persona entrevistada en C.Valenciana (tasa de respuesta: 82,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20355,7 +20355,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Barcelona</t>
+          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
